--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MariiaCherniak\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MariiaCherniak\Documents\GitHub\new\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D370B05B-64D0-40EA-B6E1-E1CCA33A53A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7DD667-50F4-4734-9ACE-96EEB0255DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="720" windowWidth="16560" windowHeight="14670" xr2:uid="{33DB894C-43A2-4E90-BE69-70BD5A25BB20}"/>
+    <workbookView xWindow="8010" yWindow="810" windowWidth="16560" windowHeight="14670" xr2:uid="{33DB894C-43A2-4E90-BE69-70BD5A25BB20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2">
-        <v>511927945</v>
+        <v>521927945</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>

--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MariiaCherniak\Documents\GitHub\new\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7DD667-50F4-4734-9ACE-96EEB0255DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE5C07E-D7C3-44FC-BF77-E1FD105B034B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8010" yWindow="810" windowWidth="16560" windowHeight="14670" xr2:uid="{33DB894C-43A2-4E90-BE69-70BD5A25BB20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33DB894C-43A2-4E90-BE69-70BD5A25BB20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2">
-        <v>521927945</v>
+        <v>521927946</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>

--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MariiaCherniak\Documents\GitHub\new\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE5C07E-D7C3-44FC-BF77-E1FD105B034B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC30CB73-6CFA-4893-8271-A644FD01B32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33DB894C-43A2-4E90-BE69-70BD5A25BB20}"/>
   </bookViews>
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2">
-        <v>521927946</v>
+        <v>521927947</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>

--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MariiaCherniak\Documents\GitHub\new\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC30CB73-6CFA-4893-8271-A644FD01B32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C441526-8318-4E03-8F61-111632B7F418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33DB894C-43A2-4E90-BE69-70BD5A25BB20}"/>
   </bookViews>
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2">
-        <v>521927947</v>
+        <v>521927948</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>

--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MariiaCherniak\Documents\GitHub\new\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C441526-8318-4E03-8F61-111632B7F418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1E11EC-27E2-4674-8F3E-7DFB87A0AF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33DB894C-43A2-4E90-BE69-70BD5A25BB20}"/>
   </bookViews>
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2">
-        <v>521927948</v>
+        <v>521927949</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>

--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MariiaCherniak\Documents\GitHub\new\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1E11EC-27E2-4674-8F3E-7DFB87A0AF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740AFF99-8BB1-4F73-8BB8-C73614EC4F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33DB894C-43A2-4E90-BE69-70BD5A25BB20}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2">
-        <v>521927949</v>
+        <v>521927950</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
